--- a/Code/Results/Cases/Case_4_204/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_204/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.520283062496162</v>
+        <v>2.687074477498015</v>
       </c>
       <c r="C2">
-        <v>3.122000127262822</v>
+        <v>1.962075346092774</v>
       </c>
       <c r="D2">
-        <v>0.5607065968520999</v>
+        <v>0.6917674849873663</v>
       </c>
       <c r="E2">
-        <v>0.2508247509941697</v>
+        <v>0.2813313834455471</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007930809020642817</v>
+        <v>0.00265223839910164</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.825253729722931</v>
+        <v>5.249643776912166</v>
       </c>
       <c r="J2">
-        <v>0.148966234641243</v>
+        <v>0.1457323425992385</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.999119249116973</v>
+        <v>2.629574434925587</v>
       </c>
       <c r="C3">
-        <v>2.688529741445677</v>
+        <v>1.879422835144055</v>
       </c>
       <c r="D3">
-        <v>0.5003950201693215</v>
+        <v>0.6841789757318395</v>
       </c>
       <c r="E3">
-        <v>0.2222632488653673</v>
+        <v>0.2774161609282473</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008121878942047508</v>
+        <v>0.002661996347303691</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.59803192629181</v>
+        <v>4.933919875177537</v>
       </c>
       <c r="J3">
-        <v>0.1308115500912734</v>
+        <v>0.1430009961348091</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.698837047654422</v>
+        <v>2.597605440569851</v>
       </c>
       <c r="C4">
-        <v>2.4352753278867</v>
+        <v>1.830172562647363</v>
       </c>
       <c r="D4">
-        <v>0.4655015508503482</v>
+        <v>0.6799450801667035</v>
       </c>
       <c r="E4">
-        <v>0.2057190893790732</v>
+        <v>0.2751937454154643</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008239483838449464</v>
+        <v>0.002668277244588583</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.872700669850133</v>
+        <v>4.740498520279317</v>
       </c>
       <c r="J4">
-        <v>0.120281128522528</v>
+        <v>0.1414242038296862</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.580584763374418</v>
+        <v>2.585407838365768</v>
       </c>
       <c r="C5">
-        <v>2.334749267085044</v>
+        <v>1.810472964790108</v>
       </c>
       <c r="D5">
-        <v>0.4517352070795937</v>
+        <v>0.6783258511028407</v>
       </c>
       <c r="E5">
-        <v>0.1991866731234566</v>
+        <v>0.2743333149010283</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000828762075717195</v>
+        <v>0.002670909927310154</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.582874711395647</v>
+        <v>4.661766826334969</v>
       </c>
       <c r="J5">
-        <v>0.1161193124002153</v>
+        <v>0.1408065748754765</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.561175891121252</v>
+        <v>2.583432311785543</v>
       </c>
       <c r="C6">
-        <v>2.318204042427453</v>
+        <v>1.807224037073468</v>
       </c>
       <c r="D6">
-        <v>0.4494744889324807</v>
+        <v>0.6780633636024334</v>
       </c>
       <c r="E6">
-        <v>0.1981135827991736</v>
+        <v>0.2741931600366598</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008295630284980149</v>
+        <v>0.002671351512296284</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.535062024641832</v>
+        <v>4.648698286085249</v>
       </c>
       <c r="J6">
-        <v>0.1154353997976258</v>
+        <v>0.1407055153614181</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.697226594123038</v>
+        <v>2.597437590268839</v>
       </c>
       <c r="C7">
-        <v>2.433909432684857</v>
+        <v>1.829905396260529</v>
       </c>
       <c r="D7">
-        <v>0.4653141596052706</v>
+        <v>0.6799228141412925</v>
       </c>
       <c r="E7">
-        <v>0.2056301906392051</v>
+        <v>0.2751819588046516</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008240132005513457</v>
+        <v>0.002668312453121553</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.86877028235287</v>
+        <v>4.739436382846463</v>
       </c>
       <c r="J7">
-        <v>0.1202245073237691</v>
+        <v>0.1414157737138737</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.335933405947685</v>
+        <v>2.666550549870067</v>
       </c>
       <c r="C8">
-        <v>2.969486499169932</v>
+        <v>1.933261670135948</v>
       </c>
       <c r="D8">
-        <v>0.5394112282485821</v>
+        <v>0.689062121525609</v>
       </c>
       <c r="E8">
-        <v>0.2407440289530243</v>
+        <v>0.2799434705092239</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007996722943919242</v>
+        <v>0.002655543085293884</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.395373952227459</v>
+        <v>5.14067969973209</v>
       </c>
       <c r="J8">
-        <v>0.1425614793627119</v>
+        <v>0.1447695887030775</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.794148414362382</v>
+        <v>2.828979289754955</v>
       </c>
       <c r="C9">
-        <v>4.155031201758902</v>
+        <v>2.148150250608637</v>
       </c>
       <c r="D9">
-        <v>0.7065983795437205</v>
+        <v>0.7104025685030706</v>
       </c>
       <c r="E9">
-        <v>0.3198160871569371</v>
+        <v>0.2907420157758622</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007513589280063824</v>
+        <v>0.002632782043708433</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.68951638264369</v>
+        <v>5.931919908146625</v>
       </c>
       <c r="J9">
-        <v>0.1927509634073559</v>
+        <v>0.1521557101994659</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.087161357535649</v>
+        <v>2.965341798777558</v>
       </c>
       <c r="C10">
-        <v>5.17239878671694</v>
+        <v>2.31393649761867</v>
       </c>
       <c r="D10">
-        <v>0.8522977912633678</v>
+        <v>0.7282282407530545</v>
       </c>
       <c r="E10">
-        <v>0.3886705585195216</v>
+        <v>0.2995972713864674</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007139491528546387</v>
+        <v>0.002617424905153104</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.43973315276168</v>
+        <v>6.51732333652464</v>
       </c>
       <c r="J10">
-        <v>0.2364224539562088</v>
+        <v>0.1580959511421725</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.758317554932319</v>
+        <v>3.031217255711795</v>
       </c>
       <c r="C11">
-        <v>5.689906904204463</v>
+        <v>2.391179793726337</v>
       </c>
       <c r="D11">
-        <v>0.9269554877628252</v>
+        <v>0.7368181932760081</v>
       </c>
       <c r="E11">
-        <v>0.4239566470374427</v>
+        <v>0.3038328931438912</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006959590231986819</v>
+        <v>0.002610729731212034</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.81421787712208</v>
+        <v>6.784837002094548</v>
       </c>
       <c r="J11">
-        <v>0.2588098136371428</v>
+        <v>0.1609144779455391</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.029085652672165</v>
+        <v>3.056727193443123</v>
       </c>
       <c r="C12">
-        <v>5.896807519243453</v>
+        <v>2.420701063684078</v>
       </c>
       <c r="D12">
-        <v>0.9568872197493477</v>
+        <v>0.740141331128342</v>
       </c>
       <c r="E12">
-        <v>0.4381063744564102</v>
+        <v>0.3054672022605089</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006889326876117394</v>
+        <v>0.00260823585004453</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.35926218879575</v>
+        <v>6.886336772260506</v>
       </c>
       <c r="J12">
-        <v>0.2677900162169777</v>
+        <v>0.1619988810747657</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.969932085017717</v>
+        <v>3.051207882967617</v>
       </c>
       <c r="C13">
-        <v>5.851696482291459</v>
+        <v>2.414330946199925</v>
       </c>
       <c r="D13">
-        <v>0.9503573656369326</v>
+        <v>0.7394224881789171</v>
       </c>
       <c r="E13">
-        <v>0.4350193235505486</v>
+        <v>0.3051138646761018</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006904570165360991</v>
+        <v>0.002608771115411912</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.2406414395964</v>
+        <v>6.864467778093342</v>
       </c>
       <c r="J13">
-        <v>0.2658306369267365</v>
+        <v>0.1617645694725098</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.780225777329861</v>
+        <v>3.033304595331401</v>
       </c>
       <c r="C14">
-        <v>5.706686807992696</v>
+        <v>2.39360304843683</v>
       </c>
       <c r="D14">
-        <v>0.9293813167257952</v>
+        <v>0.7370901739961084</v>
       </c>
       <c r="E14">
-        <v>0.4251033453889264</v>
+        <v>0.3039667367834866</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000695385799363013</v>
+        <v>0.002610523729888126</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.85851643345882</v>
+        <v>6.79318333799273</v>
       </c>
       <c r="J14">
-        <v>0.25953750213597</v>
+        <v>0.1610033478212074</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.666366304763017</v>
+        <v>3.022412160493502</v>
       </c>
       <c r="C15">
-        <v>5.619403462063929</v>
+        <v>2.380942143871607</v>
       </c>
       <c r="D15">
-        <v>0.9167663059412803</v>
+        <v>0.7356707553477122</v>
       </c>
       <c r="E15">
-        <v>0.4191403105474478</v>
+        <v>0.3032680599653617</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006983741798855439</v>
+        <v>0.002611602641755897</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.62790719277609</v>
+        <v>6.749546089892874</v>
       </c>
       <c r="J15">
-        <v>0.255753519044589</v>
+        <v>0.1605393140851703</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.045322635585023</v>
+        <v>2.961115008717911</v>
       </c>
       <c r="C16">
-        <v>5.139910771427367</v>
+        <v>2.308925918766363</v>
       </c>
       <c r="D16">
-        <v>0.8476217728294273</v>
+        <v>0.7276766424676282</v>
       </c>
       <c r="E16">
-        <v>0.3864607369112605</v>
+        <v>0.2993246826604619</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007150996856698662</v>
+        <v>0.002617868270331859</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.35290713140341</v>
+        <v>6.49986709365615</v>
       </c>
       <c r="J16">
-        <v>0.2350206932309362</v>
+        <v>0.1579141247506044</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.688302948005685</v>
+        <v>2.924503744792332</v>
       </c>
       <c r="C17">
-        <v>4.861553369727744</v>
+        <v>2.265219868339386</v>
       </c>
       <c r="D17">
-        <v>0.8076152991514221</v>
+        <v>0.7228965023522278</v>
       </c>
       <c r="E17">
-        <v>0.3675548665422497</v>
+        <v>0.2969590394067652</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007250680359394029</v>
+        <v>0.002621786251585474</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.60633358110849</v>
+        <v>6.347024124595976</v>
       </c>
       <c r="J17">
-        <v>0.2230289587711525</v>
+        <v>0.1563336957063086</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.490394205752636</v>
+        <v>2.903806956813241</v>
       </c>
       <c r="C18">
-        <v>4.706357670903344</v>
+        <v>2.240252691736373</v>
       </c>
       <c r="D18">
-        <v>0.7853574715306024</v>
+        <v>0.7201922916694343</v>
       </c>
       <c r="E18">
-        <v>0.3570367111598074</v>
+        <v>0.2956178634368101</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007307158637912828</v>
+        <v>0.00262406717182136</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.18800691876177</v>
+        <v>6.259225373029011</v>
       </c>
       <c r="J18">
-        <v>0.2163579059537284</v>
+        <v>0.155435596948891</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.424552568533784</v>
+        <v>2.896861041607508</v>
       </c>
       <c r="C19">
-        <v>4.654581300052996</v>
+        <v>2.231828422655326</v>
       </c>
       <c r="D19">
-        <v>0.7779398298908689</v>
+        <v>0.7192844212064244</v>
       </c>
       <c r="E19">
-        <v>0.3535314228334414</v>
+        <v>0.2951670932311004</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007326151624648498</v>
+        <v>0.00262484417029733</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.04810917128398</v>
+        <v>6.229516820578681</v>
       </c>
       <c r="J19">
-        <v>0.2141347449842641</v>
+        <v>0.1551333810715505</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.725510934941838</v>
+        <v>2.92836362683056</v>
       </c>
       <c r="C20">
-        <v>4.890659048561929</v>
+        <v>2.269854654879964</v>
       </c>
       <c r="D20">
-        <v>0.8117934671974183</v>
+        <v>0.7234006702827571</v>
       </c>
       <c r="E20">
-        <v>0.3695293080094686</v>
+        <v>0.2972088461387159</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007240161929652786</v>
+        <v>0.002621366342699744</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.6846203785833</v>
+        <v>6.363282705914827</v>
       </c>
       <c r="J20">
-        <v>0.2242812603874711</v>
+        <v>0.1565008020490666</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.835447413831787</v>
+        <v>3.038547814078129</v>
       </c>
       <c r="C21">
-        <v>5.748951178692323</v>
+        <v>2.399683914589218</v>
       </c>
       <c r="D21">
-        <v>0.9354927012027474</v>
+        <v>0.737773313677593</v>
       </c>
       <c r="E21">
-        <v>0.4279922733653834</v>
+        <v>0.3043028472376719</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006939446678516644</v>
+        <v>0.002610007823128924</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.97001917349081</v>
+        <v>6.814115733426092</v>
       </c>
       <c r="J21">
-        <v>0.2613708528738812</v>
+        <v>0.1612264703140482</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.661865922968502</v>
+        <v>3.113854629943432</v>
       </c>
       <c r="C22">
-        <v>6.376318361041513</v>
+        <v>2.486117961305013</v>
       </c>
       <c r="D22">
-        <v>1.026417432110691</v>
+        <v>0.7475770469571899</v>
       </c>
       <c r="E22">
-        <v>0.4709844123801616</v>
+        <v>0.3091164869612086</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006729794773039366</v>
+        <v>0.002602825708967331</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.6127116844529</v>
+        <v>7.109927773486902</v>
       </c>
       <c r="J22">
-        <v>0.288664552371884</v>
+        <v>0.1644147505383984</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.209316559438378</v>
+        <v>3.073356501745991</v>
       </c>
       <c r="C23">
-        <v>6.033948383217194</v>
+        <v>2.43983881586621</v>
       </c>
       <c r="D23">
-        <v>0.9767508846729243</v>
+        <v>0.7423066697571414</v>
       </c>
       <c r="E23">
-        <v>0.447497751997517</v>
+        <v>0.3065309439754955</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006843240771754466</v>
+        <v>0.002606636986712327</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.71913795527234</v>
+        <v>6.951932463579794</v>
       </c>
       <c r="J23">
-        <v>0.2737514180763014</v>
+        <v>0.1627038505489651</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.708666639284104</v>
+        <v>2.926617480145126</v>
       </c>
       <c r="C24">
-        <v>4.877485517608534</v>
+        <v>2.267758770101068</v>
       </c>
       <c r="D24">
-        <v>0.809902235939802</v>
+        <v>0.7231725991360634</v>
       </c>
       <c r="E24">
-        <v>0.3686355842871762</v>
+        <v>0.2970958498005274</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007244919850224984</v>
+        <v>0.002621556095013894</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.64919346761084</v>
+        <v>6.355931976645024</v>
       </c>
       <c r="J24">
-        <v>0.2237144092712668</v>
+        <v>0.1564252205597114</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.369508887091683</v>
+        <v>2.782094804177916</v>
       </c>
       <c r="C25">
-        <v>3.814409578734342</v>
+        <v>2.088663056651626</v>
       </c>
       <c r="D25">
-        <v>0.6582185288011999</v>
+        <v>0.7042570888220325</v>
       </c>
       <c r="E25">
-        <v>0.2969470763331827</v>
+        <v>0.2876611729665228</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007646238694318326</v>
+        <v>0.002638697960490145</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.75363673376043</v>
+        <v>5.717254831387805</v>
       </c>
       <c r="J25">
-        <v>0.1782436716214235</v>
+        <v>0.1500688710861553</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_204/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_204/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.687074477498015</v>
+        <v>3.520283062495992</v>
       </c>
       <c r="C2">
-        <v>1.962075346092774</v>
+        <v>3.122000127263902</v>
       </c>
       <c r="D2">
-        <v>0.6917674849873663</v>
+        <v>0.5607065968519294</v>
       </c>
       <c r="E2">
-        <v>0.2813313834455471</v>
+        <v>0.2508247509941626</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00265223839910164</v>
+        <v>0.0007930809017893924</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.249643776912166</v>
+        <v>9.82525372972276</v>
       </c>
       <c r="J2">
-        <v>0.1457323425992385</v>
+        <v>0.1489662346415628</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.629574434925587</v>
+        <v>2.999119249117086</v>
       </c>
       <c r="C3">
-        <v>1.879422835144055</v>
+        <v>2.688529741445507</v>
       </c>
       <c r="D3">
-        <v>0.6841789757318395</v>
+        <v>0.5003950201688951</v>
       </c>
       <c r="E3">
-        <v>0.2774161609282473</v>
+        <v>0.2222632488654455</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002661996347303691</v>
+        <v>0.0008121878941514522</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.933919875177537</v>
+        <v>8.598031926291782</v>
       </c>
       <c r="J3">
-        <v>0.1430009961348091</v>
+        <v>0.13081155009165</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.597605440569851</v>
+        <v>2.698837047654365</v>
       </c>
       <c r="C4">
-        <v>1.830172562647363</v>
+        <v>2.435275327887268</v>
       </c>
       <c r="D4">
-        <v>0.6799450801667035</v>
+        <v>0.4655015508500355</v>
       </c>
       <c r="E4">
-        <v>0.2751937454154643</v>
+        <v>0.2057190893790803</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002668277244588583</v>
+        <v>0.0008239483836992119</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.740498520279317</v>
+        <v>7.872700669850161</v>
       </c>
       <c r="J4">
-        <v>0.1414242038296862</v>
+        <v>0.1202811285227554</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.585407838365768</v>
+        <v>2.580584763374986</v>
       </c>
       <c r="C5">
-        <v>1.810472964790108</v>
+        <v>2.334749267084703</v>
       </c>
       <c r="D5">
-        <v>0.6783258511028407</v>
+        <v>0.4517352070799916</v>
       </c>
       <c r="E5">
-        <v>0.2743333149010283</v>
+        <v>0.1991866731234353</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002670909927310154</v>
+        <v>0.0008287620758705492</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.661766826334969</v>
+        <v>7.582874711395533</v>
       </c>
       <c r="J5">
-        <v>0.1408065748754765</v>
+        <v>0.1161193124004072</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.583432311785543</v>
+        <v>2.561175891121309</v>
       </c>
       <c r="C6">
-        <v>1.807224037073468</v>
+        <v>2.318204042427283</v>
       </c>
       <c r="D6">
-        <v>0.6780633636024334</v>
+        <v>0.4494744889326512</v>
       </c>
       <c r="E6">
-        <v>0.2741931600366598</v>
+        <v>0.1981135827991807</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002671351512296284</v>
+        <v>0.0008295630284824718</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.648698286085249</v>
+        <v>7.535062024641974</v>
       </c>
       <c r="J6">
-        <v>0.1407055153614181</v>
+        <v>0.1154353997977822</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.597437590268839</v>
+        <v>2.697226594122924</v>
       </c>
       <c r="C7">
-        <v>1.829905396260529</v>
+        <v>2.433909432683947</v>
       </c>
       <c r="D7">
-        <v>0.6799228141412925</v>
+        <v>0.4653141596051569</v>
       </c>
       <c r="E7">
-        <v>0.2751819588046516</v>
+        <v>0.2056301906392264</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002668312453121553</v>
+        <v>0.0008240132004296476</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.739436382846463</v>
+        <v>7.868770282352813</v>
       </c>
       <c r="J7">
-        <v>0.1414157737138737</v>
+        <v>0.1202245073239254</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.666550549870067</v>
+        <v>3.33593340594831</v>
       </c>
       <c r="C8">
-        <v>1.933261670135948</v>
+        <v>2.969486499169648</v>
       </c>
       <c r="D8">
-        <v>0.689062121525609</v>
+        <v>0.5394112282487526</v>
       </c>
       <c r="E8">
-        <v>0.2799434705092239</v>
+        <v>0.2407440289529674</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002655543085293884</v>
+        <v>0.0007996722945249248</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.14067969973209</v>
+        <v>9.395373952227231</v>
       </c>
       <c r="J8">
-        <v>0.1447695887030775</v>
+        <v>0.1425614793627972</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.828979289754955</v>
+        <v>4.79414841436261</v>
       </c>
       <c r="C9">
-        <v>2.148150250608637</v>
+        <v>4.155031201759016</v>
       </c>
       <c r="D9">
-        <v>0.7104025685030706</v>
+        <v>0.70659837954409</v>
       </c>
       <c r="E9">
-        <v>0.2907420157758622</v>
+        <v>0.3198160871568376</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002632782043708433</v>
+        <v>0.0007513589278410676</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.931919908146625</v>
+        <v>12.68951638264363</v>
       </c>
       <c r="J9">
-        <v>0.1521557101994659</v>
+        <v>0.1927509634073985</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.965341798777558</v>
+        <v>6.087161357535649</v>
       </c>
       <c r="C10">
-        <v>2.31393649761867</v>
+        <v>5.172398786717054</v>
       </c>
       <c r="D10">
-        <v>0.7282282407530545</v>
+        <v>0.8522977912627994</v>
       </c>
       <c r="E10">
-        <v>0.2995972713864674</v>
+        <v>0.388670558519479</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002617424905153104</v>
+        <v>0.0007139491530643305</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.51732333652464</v>
+        <v>15.43973315276122</v>
       </c>
       <c r="J10">
-        <v>0.1580959511421725</v>
+        <v>0.236422453956564</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.031217255711795</v>
+        <v>6.758317554932148</v>
       </c>
       <c r="C11">
-        <v>2.391179793726337</v>
+        <v>5.689906904204236</v>
       </c>
       <c r="D11">
-        <v>0.7368181932760081</v>
+        <v>0.926955487763081</v>
       </c>
       <c r="E11">
-        <v>0.3038328931438912</v>
+        <v>0.4239566470373362</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002610729731212034</v>
+        <v>0.0006959590229829797</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.784837002094548</v>
+        <v>16.8142178771223</v>
       </c>
       <c r="J11">
-        <v>0.1609144779455391</v>
+        <v>0.2588098136378818</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.056727193443123</v>
+        <v>7.029085652672279</v>
       </c>
       <c r="C12">
-        <v>2.420701063684078</v>
+        <v>5.89680751924277</v>
       </c>
       <c r="D12">
-        <v>0.740141331128342</v>
+        <v>0.9568872197492055</v>
       </c>
       <c r="E12">
-        <v>0.3054672022605089</v>
+        <v>0.4381063744565239</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.00260823585004453</v>
+        <v>0.0006889326880399338</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.886336772260506</v>
+        <v>17.35926218879519</v>
       </c>
       <c r="J12">
-        <v>0.1619988810747657</v>
+        <v>0.2677900162167504</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.051207882967617</v>
+        <v>6.969932085018115</v>
       </c>
       <c r="C13">
-        <v>2.414330946199925</v>
+        <v>5.851696482290436</v>
       </c>
       <c r="D13">
-        <v>0.7394224881789171</v>
+        <v>0.9503573656371032</v>
       </c>
       <c r="E13">
-        <v>0.3051138646761018</v>
+        <v>0.4350193235506055</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002608771115411912</v>
+        <v>0.0006904570167605765</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.864467778093342</v>
+        <v>17.24064143959612</v>
       </c>
       <c r="J13">
-        <v>0.1617645694725098</v>
+        <v>0.2658306369263101</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.033304595331401</v>
+        <v>6.780225777329917</v>
       </c>
       <c r="C14">
-        <v>2.39360304843683</v>
+        <v>5.706686807993037</v>
       </c>
       <c r="D14">
-        <v>0.7370901739961084</v>
+        <v>0.9293813167262783</v>
       </c>
       <c r="E14">
-        <v>0.3039667367834866</v>
+        <v>0.4251033453889832</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002610523729888126</v>
+        <v>0.0006953857996041619</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.79318333799273</v>
+        <v>16.85851643345939</v>
       </c>
       <c r="J14">
-        <v>0.1610033478212074</v>
+        <v>0.2595375021357711</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.022412160493502</v>
+        <v>6.666366304763528</v>
       </c>
       <c r="C15">
-        <v>2.380942143871607</v>
+        <v>5.619403462064383</v>
       </c>
       <c r="D15">
-        <v>0.7356707553477122</v>
+        <v>0.9167663059411666</v>
       </c>
       <c r="E15">
-        <v>0.3032680599653617</v>
+        <v>0.4191403105474834</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002611602641755897</v>
+        <v>0.0006983741798669563</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.749546089892874</v>
+        <v>16.62790719277609</v>
       </c>
       <c r="J15">
-        <v>0.1605393140851703</v>
+        <v>0.2557535190446885</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.961115008717911</v>
+        <v>6.045322635585421</v>
       </c>
       <c r="C16">
-        <v>2.308925918766363</v>
+        <v>5.139910771427481</v>
       </c>
       <c r="D16">
-        <v>0.7276766424676282</v>
+        <v>0.8476217728287168</v>
       </c>
       <c r="E16">
-        <v>0.2993246826604619</v>
+        <v>0.3864607369113457</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002617868270331859</v>
+        <v>0.0007150996860671116</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.49986709365615</v>
+        <v>15.3529071314033</v>
       </c>
       <c r="J16">
-        <v>0.1579141247506044</v>
+        <v>0.235020693231121</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.924503744792332</v>
+        <v>5.688302948005514</v>
       </c>
       <c r="C17">
-        <v>2.265219868339386</v>
+        <v>4.861553369727631</v>
       </c>
       <c r="D17">
-        <v>0.7228965023522278</v>
+        <v>0.8076152991522463</v>
       </c>
       <c r="E17">
-        <v>0.2969590394067652</v>
+        <v>0.3675548665421857</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002621786251585474</v>
+        <v>0.0007250680359577204</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.347024124595976</v>
+        <v>14.60633358110823</v>
       </c>
       <c r="J17">
-        <v>0.1563336957063086</v>
+        <v>0.2230289587709962</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.903806956813241</v>
+        <v>5.490394205752466</v>
       </c>
       <c r="C18">
-        <v>2.240252691736373</v>
+        <v>4.706357670903458</v>
       </c>
       <c r="D18">
-        <v>0.7201922916694343</v>
+        <v>0.7853574715302045</v>
       </c>
       <c r="E18">
-        <v>0.2956178634368101</v>
+        <v>0.3570367111597861</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00262406717182136</v>
+        <v>0.0007307158639769121</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.259225373029011</v>
+        <v>14.1880069187616</v>
       </c>
       <c r="J18">
-        <v>0.155435596948891</v>
+        <v>0.2163579059536431</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.896861041607508</v>
+        <v>5.424552568534011</v>
       </c>
       <c r="C19">
-        <v>2.231828422655326</v>
+        <v>4.65458130005311</v>
       </c>
       <c r="D19">
-        <v>0.7192844212064244</v>
+        <v>0.7779398298905562</v>
       </c>
       <c r="E19">
-        <v>0.2951670932311004</v>
+        <v>0.3535314228333206</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00262484417029733</v>
+        <v>0.0007326151621949888</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.229516820578681</v>
+        <v>14.0481091712839</v>
       </c>
       <c r="J19">
-        <v>0.1551333810715505</v>
+        <v>0.214134744984193</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.92836362683056</v>
+        <v>5.725510934942349</v>
       </c>
       <c r="C20">
-        <v>2.269854654879964</v>
+        <v>4.890659048561474</v>
       </c>
       <c r="D20">
-        <v>0.7234006702827571</v>
+        <v>0.8117934671978446</v>
       </c>
       <c r="E20">
-        <v>0.2972088461387159</v>
+        <v>0.3695293080094686</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002621366342699744</v>
+        <v>0.000724016192879441</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.363282705914827</v>
+        <v>14.68462037858316</v>
       </c>
       <c r="J20">
-        <v>0.1565008020490666</v>
+        <v>0.2242812603874853</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.038547814078129</v>
+        <v>6.835447413831901</v>
       </c>
       <c r="C21">
-        <v>2.399683914589218</v>
+        <v>5.748951178693233</v>
       </c>
       <c r="D21">
-        <v>0.737773313677593</v>
+        <v>0.9354927012024632</v>
       </c>
       <c r="E21">
-        <v>0.3043028472376719</v>
+        <v>0.4279922733655113</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002610007823128924</v>
+        <v>0.0006939446676152983</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.814115733426092</v>
+        <v>16.97001917349132</v>
       </c>
       <c r="J21">
-        <v>0.1612264703140482</v>
+        <v>0.2613708528740375</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.113854629943432</v>
+        <v>7.661865922968275</v>
       </c>
       <c r="C22">
-        <v>2.486117961305013</v>
+        <v>6.376318361041854</v>
       </c>
       <c r="D22">
-        <v>0.7475770469571899</v>
+        <v>1.026417432111458</v>
       </c>
       <c r="E22">
-        <v>0.3091164869612086</v>
+        <v>0.4709844123800977</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002602825708967331</v>
+        <v>0.0006729794772911559</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.109927773486902</v>
+        <v>18.61271168445296</v>
       </c>
       <c r="J22">
-        <v>0.1644147505383984</v>
+        <v>0.2886645523719551</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.073356501745991</v>
+        <v>7.209316559438491</v>
       </c>
       <c r="C23">
-        <v>2.43983881586621</v>
+        <v>6.033948383216398</v>
       </c>
       <c r="D23">
-        <v>0.7423066697571414</v>
+        <v>0.976750884672299</v>
       </c>
       <c r="E23">
-        <v>0.3065309439754955</v>
+        <v>0.4474977519975667</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002606636986712327</v>
+        <v>0.0006843240771017278</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.951932463579794</v>
+        <v>17.71913795527206</v>
       </c>
       <c r="J23">
-        <v>0.1627038505489651</v>
+        <v>0.2737514180758325</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.926617480145126</v>
+        <v>5.708666639283649</v>
       </c>
       <c r="C24">
-        <v>2.267758770101068</v>
+        <v>4.877485517608761</v>
       </c>
       <c r="D24">
-        <v>0.7231725991360634</v>
+        <v>0.8099022359405126</v>
       </c>
       <c r="E24">
-        <v>0.2970958498005274</v>
+        <v>0.3686355842870839</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002621556095013894</v>
+        <v>0.0007244919851094356</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.355931976645024</v>
+        <v>14.64919346761098</v>
       </c>
       <c r="J24">
-        <v>0.1564252205597114</v>
+        <v>0.2237144092708974</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.782094804177916</v>
+        <v>4.369508887091399</v>
       </c>
       <c r="C25">
-        <v>2.088663056651626</v>
+        <v>3.814409578733375</v>
       </c>
       <c r="D25">
-        <v>0.7042570888220325</v>
+        <v>0.6582185288009441</v>
       </c>
       <c r="E25">
-        <v>0.2876611729665228</v>
+        <v>0.2969470763332183</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002638697960490145</v>
+        <v>0.0007646238694497433</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.717254831387805</v>
+        <v>11.75363673376035</v>
       </c>
       <c r="J25">
-        <v>0.1500688710861553</v>
+        <v>0.1782436716213027</v>
       </c>
       <c r="K25">
         <v>0</v>
